--- a/IMFCode.xlsx
+++ b/IMFCode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/64a1920f95dbe644/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="299" documentId="8_{DED776B7-EEC3-4070-8D8E-7E23CD8839BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EEEADAA-13D8-4588-90BE-BDEAF0534513}"/>
+  <xr:revisionPtr revIDLastSave="307" documentId="8_{DED776B7-EEC3-4070-8D8E-7E23CD8839BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00AF9BBA-B642-477F-A7A2-A2CD5305A2C9}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="15324" windowHeight="13776" firstSheet="6" activeTab="7" xr2:uid="{444C16A9-2DB4-4D0A-92E5-2BEE081CC085}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="9960" activeTab="1" xr2:uid="{444C16A9-2DB4-4D0A-92E5-2BEE081CC085}"/>
   </bookViews>
   <sheets>
     <sheet name="Country" sheetId="1" r:id="rId1"/>
@@ -2413,7 +2413,7 @@
   <dimension ref="A1:C189"/>
   <sheetViews>
     <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2834,10 +2834,10 @@
         <v>83</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -2845,10 +2845,10 @@
         <v>86</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -4715,8 +4715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD751AF-1432-46EB-94EF-B2904FDE204E}">
   <dimension ref="A1:C189"/>
   <sheetViews>
-    <sheetView topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C189"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5137,10 +5137,10 @@
         <v>433</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -5148,10 +5148,10 @@
         <v>434</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -10191,7 +10191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E689B0-B06A-4A3B-808B-FEE8D4F3ABE2}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
